--- a/refinish records.xlsx
+++ b/refinish records.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3183" uniqueCount="3183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3184" uniqueCount="3184">
   <si>
     <t>SL</t>
   </si>
@@ -9578,6 +9578,9 @@
   </si>
   <si>
     <t>Delivery Date</t>
+  </si>
+  <si>
+    <t>Rate</t>
   </si>
 </sst>
 </file>
@@ -9909,7 +9912,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B6:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
@@ -9970,10 +9973,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E3:L3164"/>
+  <dimension ref="E3:M3164"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9981,20 +9984,23 @@
     <col min="5" max="5" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
         <v>2</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>3178</v>
       </c>
-    </row>
-    <row r="4" spans="5:12" x14ac:dyDescent="0.25">
+      <c r="M3" t="s">
+        <v>3183</v>
+      </c>
+    </row>
+    <row r="4" spans="5:13" x14ac:dyDescent="0.25">
       <c r="L4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
         <v>3</v>
       </c>
@@ -10002,7 +10008,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
         <v>4</v>
       </c>
@@ -10010,7 +10016,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>5</v>
       </c>
@@ -10018,7 +10024,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
         <v>6</v>
       </c>
@@ -10026,7 +10032,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
         <v>7</v>
       </c>
@@ -10034,7 +10040,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
         <v>8</v>
       </c>
@@ -10042,7 +10048,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
         <v>9</v>
       </c>
@@ -10050,7 +10056,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
         <v>10</v>
       </c>
@@ -10058,7 +10064,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
         <v>11</v>
       </c>
@@ -10066,7 +10072,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
         <v>12</v>
       </c>
@@ -10074,7 +10080,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
         <v>13</v>
       </c>
@@ -10082,7 +10088,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="5:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="5:13" x14ac:dyDescent="0.25">
       <c r="L16" t="s">
         <v>29</v>
       </c>
